--- a/AutoLoader/Contents/Support/PowerDistributionSystem/Secondary_Circuit_MatchTable_Default.xlsx
+++ b/AutoLoader/Contents/Support/PowerDistributionSystem/Secondary_Circuit_MatchTable_Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>至消防控制中心手动控制盘、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>至280℃防火阀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,6 +306,10 @@
   </si>
   <si>
     <t>导体选择类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至消防控制中心手动控制盘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,26 +647,26 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -704,7 +704,7 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>14</v>
@@ -716,7 +716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,7 +754,7 @@
         <v>21</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>22</v>
@@ -766,355 +766,355 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="D17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="D18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="O20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AutoLoader/Contents/Support/PowerDistributionSystem/Secondary_Circuit_MatchTable_Default.xlsx
+++ b/AutoLoader/Contents/Support/PowerDistributionSystem/Secondary_Circuit_MatchTable_Default.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F01E08-916E-45AC-913B-F67BF59FDDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -316,7 +317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,11 +644,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -860,6 +861,9 @@
       <c r="E6" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -875,9 +879,6 @@
         <v>63</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="1" t="s">
         <v>68</v>
       </c>
     </row>
